--- a/nList.xlsx
+++ b/nList.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="360" windowWidth="27735" windowHeight="12225"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="12855" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="name" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,108 +16,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="2867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="3120">
+  <si>
+    <t>https://m.blog.naver.com/mykim3709</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yoous2923</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/minjoon3026</t>
+  </si>
   <si>
     <t>https://m.blog.naver.com/laon_happy7</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/mykim3709</t>
+    <t>https://m.blog.naver.com/ill2687</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/hasugu80</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/yoous2923</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/minjoon3026</t>
+    <t>https://m.blog.naver.com/twodale100</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/linaluna</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ryanzenglish</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/bmw2692</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/chldbwl13</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/zxcvnb00</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/ryanzenglish</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/ill2687</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/bmw2692</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/twodale100</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/linaluna</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/wani346</t>
   </si>
   <si>
+    <t>https://m.blog.naver.com/1004_kjh</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/theablekids</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/pipidi1983</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wlgkr123</t>
+  </si>
+  <si>
     <t>https://m.blog.naver.com/skillman21</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/chldbwl13</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/miin2777</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/1004_kjh</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/theablekids</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/wlgkr123</t>
+    <t>https://m.blog.naver.com/yesnrz5</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/shery365</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jspch61</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/openland9</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/aroyan</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ey6202</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jetamazinga</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/woosunnemo</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/az10600</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/majesty0117</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ryujh4321</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/bboseo123</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/js35ru</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/pipidi1983</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/yesnrz5</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/shery365</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/openland9</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/jetamazinga</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/woosunnemo</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/aroyan</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/az10600</t>
+    <t>https://m.blog.naver.com/lcg8824</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/cinnabar0</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dlrkddud0113</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/slonia</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/minflow7</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jpyoh</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/hey2229</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/jspch61</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/majesty0117</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/gktkrk</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/ey6202</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/lcg8824</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/ryujh4321</t>
+    <t>https://m.blog.naver.com/wwkwom</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jongbbangi</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/rlfls52</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/younjae4007</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lsm0607</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/flush6788</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/tita1004</t>
@@ -126,42 +162,33 @@
     <t>https://m.blog.naver.com/appltr</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/slonia</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/minflow7</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/wwkwom</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/jpyoh</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/bboseo123</t>
+    <t>https://m.blog.naver.com/775-0087</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/izzylia</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/ppch9708</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/cinnabar0</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/shia1224</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/jongbbangi</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/allinone21</t>
   </si>
   <si>
+    <t>https://m.blog.naver.com/kts7521</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hjhkyn2</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/piano0382</t>
+  </si>
+  <si>
     <t>https://m.blog.naver.com/ds8018</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/rlfls52</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/okhee5811</t>
   </si>
   <si>
@@ -171,34 +198,46 @@
     <t>https://m.blog.naver.com/sulifeel</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/dlrkddud0113</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/younjae4007</t>
+    <t>https://m.blog.naver.com/yunhyang87</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/010na3846</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/carpok302</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/geniusymy</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/shinygirl822</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ban1329</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/reo1110</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/lsm0607</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/flush6788</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/yunhyang87</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/010na3846</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/kts7521</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/775-0087</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/carpok302</t>
+    <t>https://m.blog.naver.com/hyowon9596</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hyun1127</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kwonha07</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/fly_net</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/rits_khi</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ryeom10</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gangbaegi</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/yone_fitness</t>
@@ -207,51 +246,60 @@
     <t>https://m.blog.naver.com/avviogarden</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/hyowon9596</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/izzylia</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dbsdks486</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/yaja123445</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/hjhkyn2</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/mison0127</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/kc8588</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/piano0382</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/geniusymy</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/naipo000</t>
   </si>
   <si>
+    <t>https://m.blog.naver.com/sjagmwhdk</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mal3500</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wkaehfdl1</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sunnybest2</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wooej0131</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/zabcho21c</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hyechon49</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gefahren94</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/cjh8180495</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/anjung4322</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kikititipi</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/seokanghwi</t>
+  </si>
+  <si>
     <t>https://m.blog.naver.com/yym5164</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/sjagmwhdk</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/mal3500</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/wkaehfdl1</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/sunnybest2</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dglsm</t>
   </si>
   <si>
@@ -261,34 +309,58 @@
     <t>https://m.blog.naver.com/bloodymodern</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/wooej0131</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/hsj0324love</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/shinygirl822</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/jangwonseoflowerlab</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/hyun1127</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dhalwls</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kwonha07</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/kyshar2</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/ban1329</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/fly_net</t>
+    <t>https://m.blog.naver.com/sulhee0315</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yhkim5497</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/limhuijoo</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/siwoominha</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yunrosa777</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/bb6151</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/chabokim1</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hyoyoun80</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/333yay</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/brainshh</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ha1r_</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/seven0314</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ibo3687</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/eunjung237</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/naine_blanche</t>
@@ -315,61 +387,79 @@
     <t>https://m.blog.naver.com/jgg0908</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/sulhee0315</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/yhkim5497</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/loveingame</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/zabcho21c</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/limhuijoo</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/siwoominha</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/chuchuchu0405</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/shdmfo_o</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/hyechon49</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/yoosu64</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/2002yyk</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/gefahren94</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/km_3599</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/rits_khi</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/ryeom10</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/gangbaegi</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/cjh8180495</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/yunrosa777</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/anjung4322</t>
+    <t>https://m.blog.naver.com/parkmunkwu</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dldudghks94</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lchnara</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gang100</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/rdd27</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kokonett</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yyyson1123</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hmj0864</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/misunglove2</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kingstar971022</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yessam10</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/clubjosc</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/cgs2020</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/minvietnam</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/play7124</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jjini2232</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jangpanji</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hanaroma71</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dagyeomlee</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/sky420</t>
@@ -378,9 +468,6 @@
     <t>https://m.blog.naver.com/angrywave200</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/bb6151</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/lungerang</t>
   </si>
   <si>
@@ -390,33 +477,12 @@
     <t>https://m.blog.naver.com/sbt0802</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/parkmunkwu</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/dldudghks94</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/kele8999</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/lchnara</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/gang100</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/peteryim15</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/rdd27</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/kokonett</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/yyyson1123</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/lolhan</t>
   </si>
   <si>
@@ -426,9 +492,6 @@
     <t>https://m.blog.naver.com/youngeun727</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/chabokim1</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/ajung8904</t>
   </si>
   <si>
@@ -438,9 +501,6 @@
     <t>https://m.blog.naver.com/mh3661</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/hyoyoun80</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/keisp</t>
   </si>
   <si>
@@ -450,13 +510,94 @@
     <t>https://m.blog.naver.com/qkdguswn7</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/hmj0864</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/kingsmagenproject</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/misunglove2</t>
+    <t>https://m.blog.naver.com/tjsdnd67</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hamsu22</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/moriha1</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ever5493</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jenny-1914</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kchang8661</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jjangtg1</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/haroonews</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/comfortpaint</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/magokteacoop</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/rlagustn1010</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hoya3838</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jwhong441</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hl2rz</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wsrthfk1</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/redrose0025</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/aaawww34</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/saintbros</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/r_time</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/qlwjsgustlf</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/oneweek91</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jmsk00</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kim980124</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/a880208</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/isungji</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/oxina2</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/bb3018</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/driver21v</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/rmhlove1</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/hkna21</t>
@@ -480,9 +621,6 @@
     <t>https://m.blog.naver.com/itscrystal</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kikititipi</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/ysupdent</t>
   </si>
   <si>
@@ -492,27 +630,12 @@
     <t>https://m.blog.naver.com/qzpme127</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kingstar971022</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/tjsdnd67</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/hamsu22</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/moriha1</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/sykim941229</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/property_auction</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/ever5493</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/mayforest_kjn</t>
   </si>
   <si>
@@ -537,40 +660,82 @@
     <t>https://m.blog.naver.com/hhheek</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/333yay</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/hojin740414</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/marymary__y</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/brainshh</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/jenny-1914</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/aj10003</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kchang8661</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/jjangtg1</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/jaho0431</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/seokanghwi</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/haroonews</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/comfortpaint</t>
+    <t>https://m.blog.naver.com/kso8888</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kkanna86</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dirnrhd95</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hope2017--</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gajapada</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ting6441</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/rdd8301</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wlaltjs8762</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/pocketmax</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ew0402</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/christina61</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kirakiraksh</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kusim83</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dydwls4295</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hanah0829</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/diask77</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/erommbiz</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/alizee55</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/issakr</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wlsdyd2021</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/googlewindow</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/7hanna5780</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/seedplace</t>
@@ -627,15 +792,9 @@
     <t>https://m.blog.naver.com/rhdygksl</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kso8888</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/nahlee8</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kkanna86</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/plazadental</t>
   </si>
   <si>
@@ -684,9 +843,6 @@
     <t>https://m.blog.naver.com/yuntoll</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/dirnrhd95</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/nsm9802</t>
   </si>
   <si>
@@ -711,30 +867,15 @@
     <t>https://m.blog.naver.com/skm6707</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/hope2017--</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/lar0722</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/gajapada</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/ting6441</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/sks576</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/river7477</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/magokteacoop</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/rlagustn1010</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/today_recipe</t>
   </si>
   <si>
@@ -747,19 +888,130 @@
     <t>https://m.blog.naver.com/mmm5500</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/rdd8301</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/hoya3838</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/yessam10</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/bibn5654</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/jwhong441</t>
+    <t>https://m.blog.naver.com/rlaxmdls</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/cielenfant</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/fresh102</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sitelove</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/rachelyun1</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/no96xx</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/inteliwon</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/tjdska05</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/byartkorea</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/6113422112</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/cfagro</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lin6725</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/manggae_211</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/tjsdud7089</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/narutop3350</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/opjg</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/parkjk715</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/byuly00</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/pobi030</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/nyc1947</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/suksa7515</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/y2kkem</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/znqkx3</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/isn56</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kokurean</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/0506juwon</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/igrammy</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gibong365</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sundry24</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hegoll72</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sozizzang75</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/84anthd</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ggbsgfrfm</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lanfriend</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yoondg19</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ohkkiing</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/instinct7939</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/werjazz</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dnrcjf</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/freecare2251</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dy405584</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/vjrmtla</t>
@@ -990,9 +1242,6 @@
     <t>https://m.blog.naver.com/sniper1992</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/rlaxmdls</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dobargi</t>
   </si>
   <si>
@@ -1479,9 +1728,6 @@
     <t>https://m.blog.naver.com/mjjjelly</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/wlaltjs8762</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/cmw1124</t>
   </si>
   <si>
@@ -2166,9 +2412,6 @@
     <t>https://m.blog.naver.com/tnsmdwhdruf</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/cielenfant</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dearyou012</t>
   </si>
   <si>
@@ -2223,9 +2466,6 @@
     <t>https://m.blog.naver.com/ddong4977</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/fresh102</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/szin__</t>
   </si>
   <si>
@@ -2400,9 +2640,6 @@
     <t>https://m.blog.naver.com/ghfldi80</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/sitelove</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/queenyje</t>
   </si>
   <si>
@@ -2442,9 +2679,6 @@
     <t>https://m.blog.naver.com/abcdpuj</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/pocketmax</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/gkzndhkdl</t>
   </si>
   <si>
@@ -2508,9 +2742,6 @@
     <t>https://m.blog.naver.com/zzansson</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/rachelyun1</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/712gram</t>
   </si>
   <si>
@@ -2889,9 +3120,6 @@
     <t>https://m.blog.naver.com/sneered</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/no96xx</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/younhanul1</t>
   </si>
   <si>
@@ -3204,9 +3432,6 @@
     <t>https://m.blog.naver.com/soaql1219</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/hl2rz</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/byong1353</t>
   </si>
   <si>
@@ -3615,9 +3840,6 @@
     <t>https://m.blog.naver.com/wga0823</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/inteliwon</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/qorjdud</t>
   </si>
   <si>
@@ -3819,9 +4041,6 @@
     <t>https://m.blog.naver.com/tpdna1004</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/clubjosc</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/gotnn</t>
   </si>
   <si>
@@ -3963,9 +4182,6 @@
     <t>https://m.blog.naver.com/juhani1206</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/ha1r_</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/hothsh1</t>
   </si>
   <si>
@@ -4257,9 +4473,6 @@
     <t>https://m.blog.naver.com/linda6455</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/wsrthfk1</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/khan_0722</t>
   </si>
   <si>
@@ -4326,9 +4539,6 @@
     <t>https://m.blog.naver.com/until79</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/tjdska05</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/clover_0311</t>
   </si>
   <si>
@@ -4404,9 +4614,6 @@
     <t>https://m.blog.naver.com/acetreker</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/byartkorea</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/jhl1528</t>
   </si>
   <si>
@@ -4620,9 +4827,6 @@
     <t>https://m.blog.naver.com/kkoma123456</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/6113422112</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/ribing_caer119</t>
   </si>
   <si>
@@ -4638,9 +4842,6 @@
     <t>https://m.blog.naver.com/esys123</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/cfagro</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/bhy8094</t>
   </si>
   <si>
@@ -4656,9 +4857,6 @@
     <t>https://m.blog.naver.com/lch7487</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/lin6725</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/bkl11111</t>
   </si>
   <si>
@@ -4845,9 +5043,6 @@
     <t>https://m.blog.naver.com/grima1120</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/manggae_211</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dbtodms</t>
   </si>
   <si>
@@ -5265,9 +5460,6 @@
     <t>https://m.blog.naver.com/piaist</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/ew0402</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/asc1193</t>
   </si>
   <si>
@@ -5349,9 +5541,6 @@
     <t>https://m.blog.naver.com/difuk83</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/tjsdud7089</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/raumoptical</t>
   </si>
   <si>
@@ -5466,9 +5655,6 @@
     <t>https://m.blog.naver.com/awesomemina</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/christina61</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/chamel30</t>
   </si>
   <si>
@@ -5505,18 +5691,12 @@
     <t>https://m.blog.naver.com/crimi88</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kirakiraksh</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/iyjh726</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/dual103</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/narutop3350</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/silverblue07</t>
   </si>
   <si>
@@ -5589,9 +5769,6 @@
     <t>https://m.blog.naver.com/sorisai2001</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/opjg</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/razzaem22</t>
   </si>
   <si>
@@ -5601,12 +5778,6 @@
     <t>https://m.blog.naver.com/doublesholdings</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/redrose0025</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/parkjk715</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/holipay1</t>
   </si>
   <si>
@@ -5760,9 +5931,6 @@
     <t>https://m.blog.naver.com/one-clean</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/aaawww34</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/ju9217</t>
   </si>
   <si>
@@ -5781,9 +5949,6 @@
     <t>https://m.blog.naver.com/didsmf6123</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/byuly00</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/rkdtlsgp2331</t>
   </si>
   <si>
@@ -5826,9 +5991,6 @@
     <t>https://m.blog.naver.com/quf02071227</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kusim83</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/fldnfldb</t>
   </si>
   <si>
@@ -5877,15 +6039,9 @@
     <t>https://m.blog.naver.com/dldkstn48</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/dydwls4295</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/midst99</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/cgs2020</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/tyzonyy</t>
   </si>
   <si>
@@ -5982,9 +6138,6 @@
     <t>https://m.blog.naver.com/yoo998415</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/hanah0829</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/lemon2038</t>
   </si>
   <si>
@@ -6039,9 +6192,6 @@
     <t>https://m.blog.naver.com/khi3140k</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/pobi030</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/stricland</t>
   </si>
   <si>
@@ -6051,9 +6201,6 @@
     <t>https://m.blog.naver.com/redhanb</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/nyc1947</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/ipost1</t>
   </si>
   <si>
@@ -6084,15 +6231,9 @@
     <t>https://m.blog.naver.com/firsthair87</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/suksa7515</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/onsaemiroya</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/diask77</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dbmerong</t>
   </si>
   <si>
@@ -6174,9 +6315,6 @@
     <t>https://m.blog.naver.com/t87yoyo</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/y2kkem</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dltmddus0513</t>
   </si>
   <si>
@@ -6297,9 +6435,6 @@
     <t>https://m.blog.naver.com/campkorea124</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/erommbiz</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/nk08141</t>
   </si>
   <si>
@@ -6354,9 +6489,6 @@
     <t>https://m.blog.naver.com/minjae320</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/saintbros</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/izziy</t>
   </si>
   <si>
@@ -6396,9 +6528,6 @@
     <t>https://m.blog.naver.com/ehdgus12370</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/minvietnam</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dhfl1004</t>
   </si>
   <si>
@@ -6408,9 +6537,6 @@
     <t>https://m.blog.naver.com/fastwebbuilding</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/alizee55</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/cocojam8243</t>
   </si>
   <si>
@@ -6420,12 +6546,6 @@
     <t>https://m.blog.naver.com/runningmal</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/r_time</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/qlwjsgustlf</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/z1566</t>
   </si>
   <si>
@@ -6501,9 +6621,6 @@
     <t>https://m.blog.naver.com/euneun0527</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/issakr</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/baebulbaebul2019</t>
   </si>
   <si>
@@ -6846,9 +6963,6 @@
     <t>https://m.blog.naver.com/sm5687j</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/oneweek91</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/zzzz9509</t>
   </si>
   <si>
@@ -7104,9 +7218,6 @@
     <t>https://m.blog.naver.com/cyclinghrs</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/jmsk00</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/kino003</t>
   </si>
   <si>
@@ -7146,9 +7257,6 @@
     <t>https://m.blog.naver.com/dldl684</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kim980124</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/mjpslove1</t>
   </si>
   <si>
@@ -7188,18 +7296,12 @@
     <t>https://m.blog.naver.com/tlddk1212</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/znqkx3</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/kangyo21</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/wlswkwnddl</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/play7124</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dci99136</t>
   </si>
   <si>
@@ -7221,15 +7323,9 @@
     <t>https://m.blog.naver.com/sinkiru111</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/jjini2232</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/kale1541</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/isn56</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/hwang943</t>
   </si>
   <si>
@@ -7275,9 +7371,6 @@
     <t>https://m.blog.naver.com/kjh0511kjh</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/a880208</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/c_hee2580</t>
   </si>
   <si>
@@ -7308,27 +7401,15 @@
     <t>https://m.blog.naver.com/jsn228</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/isungji</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/ohbravo</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/jangpanji</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/joygreen</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/mh790903</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kokurean</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/0506juwon</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/ejfao45</t>
   </si>
   <si>
@@ -7362,9 +7443,6 @@
     <t>https://m.blog.naver.com/jy921122</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/seven0314</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/1213sohee</t>
   </si>
   <si>
@@ -7386,15 +7464,9 @@
     <t>https://m.blog.naver.com/y_jin0414</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/igrammy</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/race86</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/hanaroma71</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/signiasaha</t>
   </si>
   <si>
@@ -7593,9 +7665,6 @@
     <t>https://m.blog.naver.com/draindalin</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/gibong365</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/morris_0106</t>
   </si>
   <si>
@@ -7671,12 +7740,6 @@
     <t>https://m.blog.naver.com/kabsoonk</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/sundry24</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/hegoll72</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/webdiseno</t>
   </si>
   <si>
@@ -7728,15 +7791,9 @@
     <t>https://m.blog.naver.com/ettmn63</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/oxina2</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/lambofd</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/ibo3687</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/aiys000</t>
   </si>
   <si>
@@ -7773,9 +7830,6 @@
     <t>https://m.blog.naver.com/cendo2</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/eunjung237</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/alwjd9295</t>
   </si>
   <si>
@@ -7797,9 +7851,6 @@
     <t>https://m.blog.naver.com/hyorimmmm</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/dagyeomlee</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/myshin7189</t>
   </si>
   <si>
@@ -7845,9 +7896,6 @@
     <t>https://m.blog.naver.com/newtire1st</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/sozizzang75</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/reportdata</t>
   </si>
   <si>
@@ -7863,9 +7911,6 @@
     <t>https://m.blog.naver.com/idscs1111</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/84anthd</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/wjstjfdmlcjdth</t>
   </si>
   <si>
@@ -7911,9 +7956,6 @@
     <t>https://m.blog.naver.com/ambrain76</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/wlsdyd2021</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dlskfk42</t>
   </si>
   <si>
@@ -7932,21 +7974,9 @@
     <t>https://m.blog.naver.com/wannabe-f</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/ggbsgfrfm</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/lanfriend</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/swimming7579</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/googlewindow</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/yoondg19</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/vkqmfp86</t>
   </si>
   <si>
@@ -8064,9 +8094,6 @@
     <t>https://m.blog.naver.com/melove_7777</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/ohkkiing</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/jungjoolee</t>
   </si>
   <si>
@@ -8181,9 +8208,6 @@
     <t>https://m.blog.naver.com/park9959</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/bb3018</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/nokdununa</t>
   </si>
   <si>
@@ -8421,9 +8445,6 @@
     <t>https://m.blog.naver.com/mango__tv</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/instinct7939</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/p_han</t>
   </si>
   <si>
@@ -8448,9 +8469,6 @@
     <t>https://m.blog.naver.com/polomoda</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/werjazz</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/tbvjrkem</t>
   </si>
   <si>
@@ -8556,18 +8574,6 @@
     <t>https://m.blog.naver.com/haerin1904</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/7hanna5780</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/driver21v</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/dnrcjf</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/freecare2251</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/this009a</t>
   </si>
   <si>
@@ -8592,9 +8598,6 @@
     <t>https://m.blog.naver.com/qlqkffkfktk</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/dy405584</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/pelee2000</t>
   </si>
   <si>
@@ -8604,9 +8607,6 @@
     <t>https://m.blog.naver.com/sinparamgrit</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/rmhlove1</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/saavvy1004</t>
   </si>
   <si>
@@ -8617,6 +8617,765 @@
   </si>
   <si>
     <t>https://m.blog.naver.com/homestore2020</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mercygrace2017</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/loka101</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/livingheritage</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dadadamoa887</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/coma386as</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/chdnjf999</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sws7535</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hsuuu1208</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wlsxothe7412</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/shinsisters2021</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/whiteangel6</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lyk498</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dkxmsqlf428</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yl4678</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/songhm0205</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hephaestusworks01</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/clickbjh2</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dvdcc</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lara_90</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kkk4943</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kmc30205</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kcjh1996</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mmg8802</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/celo0303</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/eunbi_3016</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hephaestusworks</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sell_kjh</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/tjqdhl0033a</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/iinet1004</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wjdals6456</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/photo_diary_1205</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kdj7715</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/qnsdidtls</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/123bungi</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/blueumio2</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kjs9366</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/srilanka95</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/barundental28</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kkkl93</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kkhl01</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/isc04017</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/zinee_zzyh_ik</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dogmatical</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/haoon_mom</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/xharhkwpfl18</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/unclebooth_</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hhlove6966</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/skrksbry</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kk0ngkk0ng</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/estoytan___feliz</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/syooc123</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/stardustv14</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dydmlsla1</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/two_blume</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/omo950410</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/zommercy</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jwon1203</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/aroma117</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hhoneychu</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/pminjoo90</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/annsh1008</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kimjiae0126</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jibiji56</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sup8052</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ssgrp2017</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/doo10014</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/prahealy</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/melgibshin</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/khj-love1007</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/khjlove-1007</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/secgg0</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/bb5464bb</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/alswlz1123</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/platform_ante</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mkheo21</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/eyes0208</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/andy317</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mk345</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/roseid</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/barekpig</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/choice-0m0</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ydy8104</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/iamminhyun</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/adfinder114</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ghdrnrgml2</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ysj030209</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/abslove1208</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/samooll80</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/flyfany07</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jm_dolcevita</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/92dnwldus</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gyrud1515</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/st_daldal</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/v7227436</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/bonny_shop</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/nobaram</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sbdxrus1gidu48</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/papa0825</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/luberic</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/alstjs8015</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/love151419</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/saydentalclinic</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/blackjackx21</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/seoul_one1</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/2kilo1mine</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/banbury</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/idlskin</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sop_hj</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dr_jinhee</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mugongfd</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ing9391</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/syun2207</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/royal1227</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wjdchf33</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/tour080808</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lunhan2</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jazzahj</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/pvcwpc</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/k_eunaa</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sung019</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kimmerrymerry</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/isg5325</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/rimsapparel</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/bjp00711</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/tnska4538</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/rkdgotn20</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jhr1854</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ji_mojo</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/nandabrow</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hurej1004</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/navigun</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/y___x</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/nhjun123</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mjlzzz</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ybokvirus</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lovetjsgnl</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/totalart_ej</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ttjiayou1672</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/amandaha</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/4520821</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gyuri2529</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hyegrin</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/r7895123</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/atyoursummer</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kjg36888</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/pat501</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gpdnjs119</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mihye3735</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/llkj86</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ulipp</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/piate11</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/joo8853</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dptmf2620</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/seonmi8006</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kglee1004</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/pplanets</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hjwon1121</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/heidelife</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jangjang8815</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sounghakmoon</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/tnstnqorqo</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/snfl9c</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hsn7087</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sandeul20320</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wemoms</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/skffo39</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/88seojin</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/you0rank</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/woozkey</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kdk1075</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ssipwon</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ryusc0628</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/leejeong0503</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/navorite</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ilovej3226</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/zzonesunv</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/cg2021</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/0116149694</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/vlfpscp1404</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/h_0120_j</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/soniunai</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dlawkfk1</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yoonlove0502</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dnjstnqls299</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mmrom28</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wrlde11</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/alswl4552</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/soo781</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lovetree34</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jtr5660</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/good_nar</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dutlsdlek93</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/cutestariiii</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wkdal1201</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/buy100</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dslgp</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ldc9162</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mn898</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/inhae127</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/leehanavv06</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/soyeon427</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mmmm3210</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/planner_jyj</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/max86400</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/meeltae</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/badmiri</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/star-bridge</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/chzhqhf112</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ahsld4521</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kimsopretty</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dasibookshop</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ryulk11</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/apple8273</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/aaaa3531</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/chdnjs2547</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/simba0024</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/chaewon_yang</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/newgate9627</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/qnwkalswn</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/thingkim</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/traveling_jy</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/haejunge</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lovesanglee00</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/happy9572</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/skyeun123</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ks0429</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/helloyoujin_</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/daisynaya</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222401868001</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222400830779</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222399836196</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222398641335</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222397231023</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222394900242</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222393567546</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222392093311</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222390678309</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222389312712</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222387906064</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222386750292</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222385559496</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222384094722</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222382251598</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222380311004</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222378372046</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222373321023</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222375060563</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222370575890</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222373022525</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222371912935</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222371224221</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222369886367</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/folkslife/222369468311</t>
   </si>
 </sst>
 </file>
@@ -8958,7 +9717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:B2871"/>
+  <dimension ref="B5:B3099"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23299,6 +24058,1146 @@
         <v>2866</v>
       </c>
     </row>
+    <row r="2872" spans="2:2">
+      <c r="B2872" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="2873" spans="2:2">
+      <c r="B2873" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="2874" spans="2:2">
+      <c r="B2874" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="2875" spans="2:2">
+      <c r="B2875" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="2876" spans="2:2">
+      <c r="B2876" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="2877" spans="2:2">
+      <c r="B2877" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="2878" spans="2:2">
+      <c r="B2878" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="2879" spans="2:2">
+      <c r="B2879" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="2880" spans="2:2">
+      <c r="B2880" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="2881" spans="2:2">
+      <c r="B2881" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="2882" spans="2:2">
+      <c r="B2882" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="2883" spans="2:2">
+      <c r="B2883" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="2884" spans="2:2">
+      <c r="B2884" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="2885" spans="2:2">
+      <c r="B2885" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="2886" spans="2:2">
+      <c r="B2886" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="2887" spans="2:2">
+      <c r="B2887" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="2888" spans="2:2">
+      <c r="B2888" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="2889" spans="2:2">
+      <c r="B2889" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="2890" spans="2:2">
+      <c r="B2890" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="2891" spans="2:2">
+      <c r="B2891" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="2892" spans="2:2">
+      <c r="B2892" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="2893" spans="2:2">
+      <c r="B2893" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="2894" spans="2:2">
+      <c r="B2894" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="2895" spans="2:2">
+      <c r="B2895" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="2896" spans="2:2">
+      <c r="B2896" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="2897" spans="2:2">
+      <c r="B2897" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="2898" spans="2:2">
+      <c r="B2898" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="2899" spans="2:2">
+      <c r="B2899" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="2900" spans="2:2">
+      <c r="B2900" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="2901" spans="2:2">
+      <c r="B2901" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="2902" spans="2:2">
+      <c r="B2902" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="2903" spans="2:2">
+      <c r="B2903" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="2904" spans="2:2">
+      <c r="B2904" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="2905" spans="2:2">
+      <c r="B2905" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="2906" spans="2:2">
+      <c r="B2906" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="2907" spans="2:2">
+      <c r="B2907" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="2908" spans="2:2">
+      <c r="B2908" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="2909" spans="2:2">
+      <c r="B2909" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="2910" spans="2:2">
+      <c r="B2910" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="2911" spans="2:2">
+      <c r="B2911" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="2912" spans="2:2">
+      <c r="B2912" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="2913" spans="2:2">
+      <c r="B2913" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2914" spans="2:2">
+      <c r="B2914" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="2915" spans="2:2">
+      <c r="B2915" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="2916" spans="2:2">
+      <c r="B2916" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="2917" spans="2:2">
+      <c r="B2917" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="2918" spans="2:2">
+      <c r="B2918" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="2919" spans="2:2">
+      <c r="B2919" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="2920" spans="2:2">
+      <c r="B2920" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="2921" spans="2:2">
+      <c r="B2921" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="2922" spans="2:2">
+      <c r="B2922" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="2923" spans="2:2">
+      <c r="B2923" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="2924" spans="2:2">
+      <c r="B2924" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="2925" spans="2:2">
+      <c r="B2925" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="2926" spans="2:2">
+      <c r="B2926" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="2927" spans="2:2">
+      <c r="B2927" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="2928" spans="2:2">
+      <c r="B2928" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2929" spans="2:2">
+      <c r="B2929" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="2930" spans="2:2">
+      <c r="B2930" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="2931" spans="2:2">
+      <c r="B2931" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="2932" spans="2:2">
+      <c r="B2932" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="2933" spans="2:2">
+      <c r="B2933" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="2934" spans="2:2">
+      <c r="B2934" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="2935" spans="2:2">
+      <c r="B2935" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="2936" spans="2:2">
+      <c r="B2936" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="2937" spans="2:2">
+      <c r="B2937" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="2938" spans="2:2">
+      <c r="B2938" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="2939" spans="2:2">
+      <c r="B2939" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="2940" spans="2:2">
+      <c r="B2940" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="2941" spans="2:2">
+      <c r="B2941" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="2942" spans="2:2">
+      <c r="B2942" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="2943" spans="2:2">
+      <c r="B2943" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="2944" spans="2:2">
+      <c r="B2944" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="2945" spans="2:2">
+      <c r="B2945" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="2946" spans="2:2">
+      <c r="B2946" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="2947" spans="2:2">
+      <c r="B2947" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="2948" spans="2:2">
+      <c r="B2948" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="2949" spans="2:2">
+      <c r="B2949" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="2950" spans="2:2">
+      <c r="B2950" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="2951" spans="2:2">
+      <c r="B2951" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="2952" spans="2:2">
+      <c r="B2952" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="2953" spans="2:2">
+      <c r="B2953" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="2954" spans="2:2">
+      <c r="B2954" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="2955" spans="2:2">
+      <c r="B2955" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="2956" spans="2:2">
+      <c r="B2956" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="2957" spans="2:2">
+      <c r="B2957" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2958" spans="2:2">
+      <c r="B2958" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="2959" spans="2:2">
+      <c r="B2959" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="2960" spans="2:2">
+      <c r="B2960" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="2961" spans="2:2">
+      <c r="B2961" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="2962" spans="2:2">
+      <c r="B2962" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="2963" spans="2:2">
+      <c r="B2963" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="2964" spans="2:2">
+      <c r="B2964" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="2965" spans="2:2">
+      <c r="B2965" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="2966" spans="2:2">
+      <c r="B2966" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="2967" spans="2:2">
+      <c r="B2967" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="2968" spans="2:2">
+      <c r="B2968" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2969" spans="2:2">
+      <c r="B2969" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="2970" spans="2:2">
+      <c r="B2970" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="2971" spans="2:2">
+      <c r="B2971" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="2972" spans="2:2">
+      <c r="B2972" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="2973" spans="2:2">
+      <c r="B2973" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="2974" spans="2:2">
+      <c r="B2974" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="2975" spans="2:2">
+      <c r="B2975" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="2976" spans="2:2">
+      <c r="B2976" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="2977" spans="2:2">
+      <c r="B2977" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="2978" spans="2:2">
+      <c r="B2978" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="2979" spans="2:2">
+      <c r="B2979" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="2980" spans="2:2">
+      <c r="B2980" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="2981" spans="2:2">
+      <c r="B2981" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="2982" spans="2:2">
+      <c r="B2982" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="2983" spans="2:2">
+      <c r="B2983" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="2984" spans="2:2">
+      <c r="B2984" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="2985" spans="2:2">
+      <c r="B2985" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="2986" spans="2:2">
+      <c r="B2986" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="2987" spans="2:2">
+      <c r="B2987" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="2988" spans="2:2">
+      <c r="B2988" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="2989" spans="2:2">
+      <c r="B2989" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="2990" spans="2:2">
+      <c r="B2990" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="2991" spans="2:2">
+      <c r="B2991" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="2992" spans="2:2">
+      <c r="B2992" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="2993" spans="2:2">
+      <c r="B2993" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="2994" spans="2:2">
+      <c r="B2994" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="2995" spans="2:2">
+      <c r="B2995" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="2996" spans="2:2">
+      <c r="B2996" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="2997" spans="2:2">
+      <c r="B2997" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="2998" spans="2:2">
+      <c r="B2998" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="2999" spans="2:2">
+      <c r="B2999" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="3000" spans="2:2">
+      <c r="B3000" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="3001" spans="2:2">
+      <c r="B3001" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="3002" spans="2:2">
+      <c r="B3002" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="3003" spans="2:2">
+      <c r="B3003" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="3004" spans="2:2">
+      <c r="B3004" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="3005" spans="2:2">
+      <c r="B3005" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3006" spans="2:2">
+      <c r="B3006" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="3007" spans="2:2">
+      <c r="B3007" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="3008" spans="2:2">
+      <c r="B3008" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3009" spans="2:2">
+      <c r="B3009" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="3010" spans="2:2">
+      <c r="B3010" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="3011" spans="2:2">
+      <c r="B3011" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="3012" spans="2:2">
+      <c r="B3012" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="3013" spans="2:2">
+      <c r="B3013" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="3014" spans="2:2">
+      <c r="B3014" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="3015" spans="2:2">
+      <c r="B3015" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="3016" spans="2:2">
+      <c r="B3016" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="3017" spans="2:2">
+      <c r="B3017" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="3018" spans="2:2">
+      <c r="B3018" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="3019" spans="2:2">
+      <c r="B3019" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="3020" spans="2:2">
+      <c r="B3020" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="3021" spans="2:2">
+      <c r="B3021" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3022" spans="2:2">
+      <c r="B3022" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="3023" spans="2:2">
+      <c r="B3023" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="3024" spans="2:2">
+      <c r="B3024" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="3025" spans="2:2">
+      <c r="B3025" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="3026" spans="2:2">
+      <c r="B3026" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="3027" spans="2:2">
+      <c r="B3027" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="3028" spans="2:2">
+      <c r="B3028" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="3029" spans="2:2">
+      <c r="B3029" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="3030" spans="2:2">
+      <c r="B3030" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="3031" spans="2:2">
+      <c r="B3031" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="3032" spans="2:2">
+      <c r="B3032" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="3033" spans="2:2">
+      <c r="B3033" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="3034" spans="2:2">
+      <c r="B3034" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="3035" spans="2:2">
+      <c r="B3035" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="3036" spans="2:2">
+      <c r="B3036" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="3037" spans="2:2">
+      <c r="B3037" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="3038" spans="2:2">
+      <c r="B3038" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="3039" spans="2:2">
+      <c r="B3039" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="3040" spans="2:2">
+      <c r="B3040" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="3041" spans="2:2">
+      <c r="B3041" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="3042" spans="2:2">
+      <c r="B3042" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="3043" spans="2:2">
+      <c r="B3043" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="3044" spans="2:2">
+      <c r="B3044" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="3045" spans="2:2">
+      <c r="B3045" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="3046" spans="2:2">
+      <c r="B3046" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="3047" spans="2:2">
+      <c r="B3047" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="3048" spans="2:2">
+      <c r="B3048" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="3049" spans="2:2">
+      <c r="B3049" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="3050" spans="2:2">
+      <c r="B3050" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="3051" spans="2:2">
+      <c r="B3051" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="3052" spans="2:2">
+      <c r="B3052" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="3053" spans="2:2">
+      <c r="B3053" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="3054" spans="2:2">
+      <c r="B3054" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="3055" spans="2:2">
+      <c r="B3055" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="3056" spans="2:2">
+      <c r="B3056" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="3057" spans="2:2">
+      <c r="B3057" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="3058" spans="2:2">
+      <c r="B3058" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="3059" spans="2:2">
+      <c r="B3059" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="3060" spans="2:2">
+      <c r="B3060" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="3061" spans="2:2">
+      <c r="B3061" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="3062" spans="2:2">
+      <c r="B3062" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="3063" spans="2:2">
+      <c r="B3063" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="3064" spans="2:2">
+      <c r="B3064" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="3065" spans="2:2">
+      <c r="B3065" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="3066" spans="2:2">
+      <c r="B3066" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="3067" spans="2:2">
+      <c r="B3067" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="3068" spans="2:2">
+      <c r="B3068" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="3069" spans="2:2">
+      <c r="B3069" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="3070" spans="2:2">
+      <c r="B3070" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="3071" spans="2:2">
+      <c r="B3071" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="3072" spans="2:2">
+      <c r="B3072" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="3073" spans="2:2">
+      <c r="B3073" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="3074" spans="2:2">
+      <c r="B3074" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="3075" spans="2:2">
+      <c r="B3075" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="3076" spans="2:2">
+      <c r="B3076" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="3077" spans="2:2">
+      <c r="B3077" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="3078" spans="2:2">
+      <c r="B3078" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="3079" spans="2:2">
+      <c r="B3079" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="3080" spans="2:2">
+      <c r="B3080" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="3081" spans="2:2">
+      <c r="B3081" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="3082" spans="2:2">
+      <c r="B3082" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="3083" spans="2:2">
+      <c r="B3083" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="3084" spans="2:2">
+      <c r="B3084" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="3085" spans="2:2">
+      <c r="B3085" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="3086" spans="2:2">
+      <c r="B3086" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="3087" spans="2:2">
+      <c r="B3087" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="3088" spans="2:2">
+      <c r="B3088" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="3089" spans="2:2">
+      <c r="B3089" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="3090" spans="2:2">
+      <c r="B3090" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="3091" spans="2:2">
+      <c r="B3091" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="3092" spans="2:2">
+      <c r="B3092" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="3093" spans="2:2">
+      <c r="B3093" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="3094" spans="2:2">
+      <c r="B3094" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="3095" spans="2:2">
+      <c r="B3095" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="3096" spans="2:2">
+      <c r="B3096" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="3097" spans="2:2">
+      <c r="B3097" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="3098" spans="2:2">
+      <c r="B3098" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="3099" spans="2:2">
+      <c r="B3099" t="s">
+        <v>3094</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23307,12 +25206,213 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A5:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nList.xlsx
+++ b/nList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="3120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="3401">
   <si>
     <t>https://m.blog.naver.com/mykim3709</t>
   </si>
@@ -24,63 +24,63 @@
     <t>https://m.blog.naver.com/yoous2923</t>
   </si>
   <si>
+    <t>https://m.blog.naver.com/linaluna</t>
+  </si>
+  <si>
     <t>https://m.blog.naver.com/minjoon3026</t>
   </si>
   <si>
+    <t>https://m.blog.naver.com/ill2687</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/theablekids</t>
+  </si>
+  <si>
     <t>https://m.blog.naver.com/laon_happy7</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/ill2687</t>
+    <t>https://m.blog.naver.com/twodale100</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/bmw2692</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/hasugu80</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/twodale100</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/linaluna</t>
+    <t>https://m.blog.naver.com/chldbwl13</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/1004_kjh</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/ryanzenglish</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/bmw2692</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/chldbwl13</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/zxcvnb00</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/wani346</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/1004_kjh</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/theablekids</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/pipidi1983</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/wlgkr123</t>
   </si>
   <si>
+    <t>https://m.blog.naver.com/miin2777</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yesnrz5</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/shery365</t>
+  </si>
+  <si>
     <t>https://m.blog.naver.com/skillman21</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/miin2777</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/yesnrz5</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/shery365</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/jspch61</t>
   </si>
   <si>
@@ -96,18 +96,21 @@
     <t>https://m.blog.naver.com/jetamazinga</t>
   </si>
   <si>
+    <t>https://m.blog.naver.com/majesty0117</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ryujh4321</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/cinnabar0</t>
+  </si>
+  <si>
     <t>https://m.blog.naver.com/woosunnemo</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/az10600</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/majesty0117</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/ryujh4321</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/bboseo123</t>
   </si>
   <si>
@@ -117,21 +120,33 @@
     <t>https://m.blog.naver.com/lcg8824</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/cinnabar0</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dlrkddud0113</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/slonia</t>
   </si>
   <si>
+    <t>https://m.blog.naver.com/rlfls52</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/flush6788</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/appltr</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/r_time</t>
+  </si>
+  <si>
     <t>https://m.blog.naver.com/minflow7</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/jpyoh</t>
   </si>
   <si>
+    <t>https://m.blog.naver.com/younjae4007</t>
+  </si>
+  <si>
     <t>https://m.blog.naver.com/hey2229</t>
   </si>
   <si>
@@ -144,28 +159,25 @@
     <t>https://m.blog.naver.com/jongbbangi</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/rlfls52</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/younjae4007</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/lsm0607</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/flush6788</t>
+    <t>https://m.blog.naver.com/775-0087</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/izzylia</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/tita1004</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/appltr</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/775-0087</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/izzylia</t>
+    <t>https://m.blog.naver.com/kts7521</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hjhkyn2</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wsrthfk1</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/ppch9708</t>
@@ -177,15 +189,21 @@
     <t>https://m.blog.naver.com/allinone21</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kts7521</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/hjhkyn2</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/piano0382</t>
   </si>
   <si>
+    <t>https://m.blog.naver.com/yunhyang87</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/shinygirl822</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ban1329</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ibo3687</t>
+  </si>
+  <si>
     <t>https://m.blog.naver.com/ds8018</t>
   </si>
   <si>
@@ -198,9 +216,6 @@
     <t>https://m.blog.naver.com/sulifeel</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/yunhyang87</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/010na3846</t>
   </si>
   <si>
@@ -210,10 +225,13 @@
     <t>https://m.blog.naver.com/geniusymy</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/shinygirl822</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/ban1329</t>
+    <t>https://m.blog.naver.com/kwonha07</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gangbaegi</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/seven0314</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/reo1110</t>
@@ -225,9 +243,6 @@
     <t>https://m.blog.naver.com/hyun1127</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kwonha07</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/fly_net</t>
   </si>
   <si>
@@ -237,7 +252,28 @@
     <t>https://m.blog.naver.com/ryeom10</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/gangbaegi</t>
+    <t>https://m.blog.naver.com/hyechon49</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gefahren94</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/cjh8180495</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/siwoominha</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ha1r_</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/play7124</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/redrose0025</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/property_auction</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/yone_fitness</t>
@@ -279,15 +315,6 @@
     <t>https://m.blog.naver.com/zabcho21c</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/hyechon49</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/gefahren94</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/cjh8180495</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/anjung4322</t>
   </si>
   <si>
@@ -297,6 +324,27 @@
     <t>https://m.blog.naver.com/seokanghwi</t>
   </si>
   <si>
+    <t>https://m.blog.naver.com/bb6151</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hyoyoun80</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/brainshh</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yessam10</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/cgs2020</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kusim83</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/xmenxgirl</t>
+  </si>
+  <si>
     <t>https://m.blog.naver.com/yym5164</t>
   </si>
   <si>
@@ -330,39 +378,51 @@
     <t>https://m.blog.naver.com/limhuijoo</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/siwoominha</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/yunrosa777</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/bb6151</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/chabokim1</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/hyoyoun80</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/333yay</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/brainshh</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/ha1r_</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/seven0314</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/ibo3687</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/eunjung237</t>
   </si>
   <si>
+    <t>https://m.blog.naver.com/parkmunkwu</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/misunglove2</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jjini2232</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dagyeomlee</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/qkdguswn7</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/isungji</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/driver21v</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wlaltjs8762</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/diask77</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/fresh102</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/somsom2world</t>
+  </si>
+  <si>
     <t>https://m.blog.naver.com/naine_blanche</t>
   </si>
   <si>
@@ -405,9 +465,6 @@
     <t>https://m.blog.naver.com/km_3599</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/parkmunkwu</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dldudghks94</t>
   </si>
   <si>
@@ -429,37 +486,46 @@
     <t>https://m.blog.naver.com/hmj0864</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/misunglove2</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/kingstar971022</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/yessam10</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/clubjosc</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/cgs2020</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/minvietnam</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/play7124</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/jjini2232</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/jangpanji</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/hanaroma71</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/dagyeomlee</t>
+    <t>https://m.blog.naver.com/kchang8661</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/magokteacoop</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hl2rz</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/aaawww34</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/qlwjsgustlf</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/newtire1st</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/chu_xxx</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/coma386as</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ks0429</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/sky420</t>
@@ -507,9 +573,6 @@
     <t>https://m.blog.naver.com/kimsunho114</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/qkdguswn7</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/kingsmagenproject</t>
   </si>
   <si>
@@ -528,9 +591,6 @@
     <t>https://m.blog.naver.com/jenny-1914</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kchang8661</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/jjangtg1</t>
   </si>
   <si>
@@ -540,9 +600,6 @@
     <t>https://m.blog.naver.com/comfortpaint</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/magokteacoop</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/rlagustn1010</t>
   </si>
   <si>
@@ -552,27 +609,9 @@
     <t>https://m.blog.naver.com/jwhong441</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/hl2rz</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/wsrthfk1</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/redrose0025</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/aaawww34</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/saintbros</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/r_time</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/qlwjsgustlf</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/oneweek91</t>
   </si>
   <si>
@@ -585,21 +624,36 @@
     <t>https://m.blog.naver.com/a880208</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/isungji</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/oxina2</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/bb3018</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/driver21v</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/rmhlove1</t>
   </si>
   <si>
+    <t>https://m.blog.naver.com/marymary__y</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/pocketmax</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/nsm9802</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/armed49</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/midst99</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/clickbjh2</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wjdchf33</t>
+  </si>
+  <si>
     <t>https://m.blog.naver.com/hkna21</t>
   </si>
   <si>
@@ -633,9 +687,6 @@
     <t>https://m.blog.naver.com/sykim941229</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/property_auction</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/mayforest_kjn</t>
   </si>
   <si>
@@ -663,9 +714,6 @@
     <t>https://m.blog.naver.com/hojin740414</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/marymary__y</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/aj10003</t>
   </si>
   <si>
@@ -693,12 +741,6 @@
     <t>https://m.blog.naver.com/rdd8301</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/wlaltjs8762</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/pocketmax</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/ew0402</t>
   </si>
   <si>
@@ -708,18 +750,12 @@
     <t>https://m.blog.naver.com/kirakiraksh</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kusim83</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dydwls4295</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/hanah0829</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/diask77</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/erommbiz</t>
   </si>
   <si>
@@ -738,6 +774,54 @@
     <t>https://m.blog.naver.com/7hanna5780</t>
   </si>
   <si>
+    <t>https://m.blog.naver.com/blueno</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/artcontinue</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/11qqqq11</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/cfagro</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/opjg</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/pobi030</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sozizzang75</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/werjazz</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/freecare2251</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hotdog0202</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kabsoonk</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ellejihu7</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/donghwa-1</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/susu7211</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dkxmsqlf428</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mmg8802</t>
+  </si>
+  <si>
     <t>https://m.blog.naver.com/seedplace</t>
   </si>
   <si>
@@ -780,9 +864,6 @@
     <t>https://m.blog.naver.com/sshin100</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/blueno</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/cddmh</t>
   </si>
   <si>
@@ -804,9 +885,6 @@
     <t>https://m.blog.naver.com/tkdhbh1</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/artcontinue</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/jiionn</t>
   </si>
   <si>
@@ -843,9 +921,6 @@
     <t>https://m.blog.naver.com/yuntoll</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/nsm9802</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/hslee5689</t>
   </si>
   <si>
@@ -882,9 +957,6 @@
     <t>https://m.blog.naver.com/hcb0216</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/11qqqq11</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/mmm5500</t>
   </si>
   <si>
@@ -897,9 +969,6 @@
     <t>https://m.blog.naver.com/cielenfant</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/fresh102</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/sitelove</t>
   </si>
   <si>
@@ -921,9 +990,6 @@
     <t>https://m.blog.naver.com/6113422112</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/cfagro</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/lin6725</t>
   </si>
   <si>
@@ -936,18 +1002,12 @@
     <t>https://m.blog.naver.com/narutop3350</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/opjg</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/parkjk715</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/byuly00</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/pobi030</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/nyc1947</t>
   </si>
   <si>
@@ -981,9 +1041,6 @@
     <t>https://m.blog.naver.com/hegoll72</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/sozizzang75</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/84anthd</t>
   </si>
   <si>
@@ -1002,18 +1059,63 @@
     <t>https://m.blog.naver.com/instinct7939</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/werjazz</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dnrcjf</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/freecare2251</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dy405584</t>
   </si>
   <si>
+    <t>https://m.blog.naver.com/sun_8044</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sea4165</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/cuteboram99</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/teagk45</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/eodnrlwwkd</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/helperio</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ysm0518</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/nyjy0811</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kwona0115</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/bang540122</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/duguswn331</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kkk4943</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kcjh1996</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/iinet1004</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/blueumio2</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/iamminhyun</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/adfinder114</t>
+  </si>
+  <si>
     <t>https://m.blog.naver.com/vjrmtla</t>
   </si>
   <si>
@@ -1644,9 +1746,6 @@
     <t>https://m.blog.naver.com/wogur0217</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/sun_8044</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/qufthfal6076</t>
   </si>
   <si>
@@ -3699,9 +3798,6 @@
     <t>https://m.blog.naver.com/drawingdoong</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/hotdog0202</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/mtyong0714</t>
   </si>
   <si>
@@ -3957,9 +4053,6 @@
     <t>https://m.blog.naver.com/huskylife</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/sea4165</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/hang1149</t>
   </si>
   <si>
@@ -4146,9 +4239,6 @@
     <t>https://m.blog.naver.com/ksjnala</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/somsom2world</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/inwater2000</t>
   </si>
   <si>
@@ -4257,9 +4347,6 @@
     <t>https://m.blog.naver.com/seoje907</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/xmenxgirl</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/wkfaksemfwk</t>
   </si>
   <si>
@@ -4812,9 +4899,6 @@
     <t>https://m.blog.naver.com/gusal2123</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/armed49</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/yakkikki</t>
   </si>
   <si>
@@ -5484,9 +5568,6 @@
     <t>https://m.blog.naver.com/bijou004</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/cuteboram99</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/heartfit</t>
   </si>
   <si>
@@ -5994,9 +6075,6 @@
     <t>https://m.blog.naver.com/fldnfldb</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/teagk45</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/jaelomon87</t>
   </si>
   <si>
@@ -6039,9 +6117,6 @@
     <t>https://m.blog.naver.com/dldkstn48</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/midst99</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/tyzonyy</t>
   </si>
   <si>
@@ -6258,9 +6333,6 @@
     <t>https://m.blog.naver.com/soplara</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/eodnrlwwkd</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/shinding0211</t>
   </si>
   <si>
@@ -6342,9 +6414,6 @@
     <t>https://m.blog.naver.com/wogjsdk21</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/helperio</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/todayhomes</t>
   </si>
   <si>
@@ -6405,9 +6474,6 @@
     <t>https://m.blog.naver.com/tel2223</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/ysm0518</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/tpfkwid2003</t>
   </si>
   <si>
@@ -6882,9 +6948,6 @@
     <t>https://m.blog.naver.com/dbsrl3031</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/nyjy0811</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/pny470131</t>
   </si>
   <si>
@@ -7413,9 +7476,6 @@
     <t>https://m.blog.naver.com/ejfao45</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kwona0115</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/yjo390</t>
   </si>
   <si>
@@ -7737,9 +7797,6 @@
     <t>https://m.blog.naver.com/kkj4493</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kabsoonk</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/webdiseno</t>
   </si>
   <si>
@@ -7782,9 +7839,6 @@
     <t>https://m.blog.naver.com/tiuppump</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/bang540122</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/vitamin347</t>
   </si>
   <si>
@@ -7890,12 +7944,6 @@
     <t>https://m.blog.naver.com/wkaud1102</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/ellejihu7</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/newtire1st</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/reportdata</t>
   </si>
   <si>
@@ -7965,9 +8013,6 @@
     <t>https://m.blog.naver.com/dyd82ss</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/donghwa-1</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/elixir0827</t>
   </si>
   <si>
@@ -8130,9 +8175,6 @@
     <t>https://m.blog.naver.com/c2m0209</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/duguswn331</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/etc1814</t>
   </si>
   <si>
@@ -8451,9 +8493,6 @@
     <t>https://m.blog.naver.com/raya486</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/chu_xxx</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/hemanpaul</t>
   </si>
   <si>
@@ -8472,9 +8511,6 @@
     <t>https://m.blog.naver.com/tbvjrkem</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/susu7211</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/voiomhin77</t>
   </si>
   <si>
@@ -8631,9 +8667,6 @@
     <t>https://m.blog.naver.com/dadadamoa887</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/coma386as</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/chdnjf999</t>
   </si>
   <si>
@@ -8655,9 +8688,6 @@
     <t>https://m.blog.naver.com/lyk498</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/dkxmsqlf428</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/yl4678</t>
   </si>
   <si>
@@ -8667,27 +8697,15 @@
     <t>https://m.blog.naver.com/hephaestusworks01</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/clickbjh2</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/dvdcc</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/lara_90</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kkk4943</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/kmc30205</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/kcjh1996</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/mmg8802</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/celo0303</t>
   </si>
   <si>
@@ -8703,9 +8721,6 @@
     <t>https://m.blog.naver.com/tjqdhl0033a</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/iinet1004</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/wjdals6456</t>
   </si>
   <si>
@@ -8721,9 +8736,6 @@
     <t>https://m.blog.naver.com/123bungi</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/blueumio2</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/kjs9366</t>
   </si>
   <si>
@@ -8865,12 +8877,6 @@
     <t>https://m.blog.naver.com/ydy8104</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/iamminhyun</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/adfinder114</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/ghdrnrgml2</t>
   </si>
   <si>
@@ -8958,9 +8964,6 @@
     <t>https://m.blog.naver.com/royal1227</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/wjdchf33</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/tour080808</t>
   </si>
   <si>
@@ -9294,13 +9297,853 @@
     <t>https://m.blog.naver.com/skyeun123</t>
   </si>
   <si>
-    <t>https://m.blog.naver.com/ks0429</t>
-  </si>
-  <si>
     <t>https://m.blog.naver.com/helloyoujin_</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/daisynaya</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jampilates</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sdgf965</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/soomi0411</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wncksal6</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/washenjoy123</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sbinvestment</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/c13206</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jakeunji333</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/fanclub200</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/rkdsoddl20</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/musclemind</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/joogera</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/modubig</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ggoolgamin</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/bsobso2002</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/iel-design</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sarakim1026</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/pyo8615</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/nujin_0630</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gmcity0614</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yooran7</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sbscgacademy</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/denomics</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sell7300</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/safeexpert</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/miragekiss</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ortho_park</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/thetophosp</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/leeyongwoon</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ksnrhdms1</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/land-02</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/faustutopia</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/luminary9</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yangyang_st</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/cora4062</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/qlalf2415</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dasalcap</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/archiry</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/pupuhz</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/stayfolio</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/almi93</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ksbe87</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ljm8259</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/tagout-pt</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sunin1106</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jujo1210</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/blind6512</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/pimlz</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ohshecom</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/spclass3809</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hasodong</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sini_97</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/audwns1432</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/andme74</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/chaeyeon_0121</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/nobledogcafe</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/loanlee12354</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mpmass</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kark0619</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/linel0209</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kdh651651</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hyj8986</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/pianse01</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/seungrigg</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/cjsdn201</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/skjmws</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hwan64288</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kogas825</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/k17481708</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gorzrv</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/my831113</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gaeun010417</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/bcr0310</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/rehab0827</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/nunuforet11</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/nsa14761</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hanori0228</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/tiqpxm1</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/5552331</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/fox10204</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/seoli3728</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hayoung1018</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dg3587</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wndus7948</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/olz1465</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gamenuts002</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/augus</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/nio_</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/choimk61</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sjyou23</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lslcom86</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dancein_</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ghgh490</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/never102010</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/landkey</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/je_sg</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hjkl0427</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/seolki_</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/songhair12</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/leeboom88</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/helloggu</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wellbeing1649</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hsk1721</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/luminous_official</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dongyeon9502</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yoo_neung</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hyeji615</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/welike234party</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/loveplot_</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wldnjs3368</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/khy8920</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jsbebe12</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dx_run_</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/id_huieun</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sjy971018</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/masongnoin</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ckhhh</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jangbi1234</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ppaarrkk777</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/iaanseoul</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/vicyorydragon99</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/min9m</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/news0627</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/chrislon</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wkdud0831</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/roserina0224</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/so_minii</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/minglory</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mingorange</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/choee93</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/parkmanyeo</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/banpink</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/seongmi0505</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/karasin2</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/blur3071</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/bobbob1999</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/aydoyou1</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dt3004</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/fksl0902</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kimjh6413</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/7birdie77</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/rc8585</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/junjun4089</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/iminu6</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ekfekflove</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/love_audwjd</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/parrot0707</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/minsy91</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lolpop02</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dbal3968</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jjoa256</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ryuah0310</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ekdms6629</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/bluezoa418</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dkssudek12</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/suuuh37</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jeil6888</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ara55</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/oicdjkj</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/qorektmf89</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/qmfforwpfh23</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gets_hip</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ayounge2e</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/isac85</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/thgid423</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jjumi1020</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/poppyri</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/totid2000</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/vandavanda</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/psyzen</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/reon0618</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/joa8284</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sophia_cho</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/oneflowerspring</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lyklos3</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/skclean12</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/king852000</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dripping_wata</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/rykim09</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dlgksmf3595</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wl1dnsj1</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/eunjin0307</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/h100489</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yashicakid</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sofushgdma87</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/desaza86</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/madeby_1986</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/13finekk</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/djatmd12</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/nanukihj</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jscha2015</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hoon1033</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hchpo</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yjhihi486</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/eyoung5615</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/leedan2</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/cw4132</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/seulgu422</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dnlsqlsz</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/79u79</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hsyimjit</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/taiyen</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/happynet</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sunyddd</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/3mimi</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/minabab</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/stclare</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/nomura61</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/suna8332</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wldbs15951</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/altysl82</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/baba6392</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/akws01218</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gmlwjd8744</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/tare1117</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/candys6017</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ssslmk97</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wndud8354</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/danbinim9302</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/m6223325</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ekwjd145</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kohhhh</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/915382</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/albert00704</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/creatoruncle</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lgj020230</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jds680827</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sje7006</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wpxlgusdk</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/pooh2607</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/eunjeong_shin</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/onion433</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ccc2386</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/soomiphoto</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/fier07</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/bella_rene</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dmsthf1705</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/rakuraku1</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/shellyppp</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mikyoung4206</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/amelia317</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/kikikil00</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dbswn818</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jung4215</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yeozi1014</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/2se3031</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lbyks</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sarah0167</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/shj8482</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ekdmssla1031</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/since080515</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dlsdn47</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/park_jisun</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/p0169770</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wion109</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/dwdw218</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/bear9349</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yoon-spring</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/withmysunn</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/11anne</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/amyishere04</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lhs_1017</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/flystone85</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/whdals727</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/miriam08</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sua2124</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jwym-15</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ajssd</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/tjflsdk0</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/wkrdmsdnwjd</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sks3183</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/johny58</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/rtxobs</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/gm1986</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/thgos12</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/lovesg15</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/doremi0821</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/pys1736</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/candyseo0727</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sojeong1121</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/agadae69</t>
   </si>
   <si>
     <t>https://m.blog.naver.com/folkslife/222401868001</t>
@@ -9717,7 +10560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:B3099"/>
+  <dimension ref="B5:B3380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25196,6 +26039,1411 @@
     <row r="3099" spans="2:2">
       <c r="B3099" t="s">
         <v>3094</v>
+      </c>
+    </row>
+    <row r="3100" spans="2:2">
+      <c r="B3100" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="3101" spans="2:2">
+      <c r="B3101" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="3102" spans="2:2">
+      <c r="B3102" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="3103" spans="2:2">
+      <c r="B3103" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="3104" spans="2:2">
+      <c r="B3104" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="3105" spans="2:2">
+      <c r="B3105" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="3106" spans="2:2">
+      <c r="B3106" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="3107" spans="2:2">
+      <c r="B3107" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="3108" spans="2:2">
+      <c r="B3108" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="3109" spans="2:2">
+      <c r="B3109" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="3110" spans="2:2">
+      <c r="B3110" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="3111" spans="2:2">
+      <c r="B3111" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="3112" spans="2:2">
+      <c r="B3112" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="3113" spans="2:2">
+      <c r="B3113" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="3114" spans="2:2">
+      <c r="B3114" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="3115" spans="2:2">
+      <c r="B3115" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="3116" spans="2:2">
+      <c r="B3116" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="3117" spans="2:2">
+      <c r="B3117" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="3118" spans="2:2">
+      <c r="B3118" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="3119" spans="2:2">
+      <c r="B3119" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="3120" spans="2:2">
+      <c r="B3120" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="3121" spans="2:2">
+      <c r="B3121" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="3122" spans="2:2">
+      <c r="B3122" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="3123" spans="2:2">
+      <c r="B3123" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="3124" spans="2:2">
+      <c r="B3124" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="3125" spans="2:2">
+      <c r="B3125" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="3126" spans="2:2">
+      <c r="B3126" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="3127" spans="2:2">
+      <c r="B3127" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="3128" spans="2:2">
+      <c r="B3128" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="3129" spans="2:2">
+      <c r="B3129" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="3130" spans="2:2">
+      <c r="B3130" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="3131" spans="2:2">
+      <c r="B3131" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="3132" spans="2:2">
+      <c r="B3132" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="3133" spans="2:2">
+      <c r="B3133" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="3134" spans="2:2">
+      <c r="B3134" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="3135" spans="2:2">
+      <c r="B3135" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="3136" spans="2:2">
+      <c r="B3136" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="3137" spans="2:2">
+      <c r="B3137" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="3138" spans="2:2">
+      <c r="B3138" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="3139" spans="2:2">
+      <c r="B3139" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="3140" spans="2:2">
+      <c r="B3140" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="3141" spans="2:2">
+      <c r="B3141" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="3142" spans="2:2">
+      <c r="B3142" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="3143" spans="2:2">
+      <c r="B3143" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="3144" spans="2:2">
+      <c r="B3144" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="3145" spans="2:2">
+      <c r="B3145" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="3146" spans="2:2">
+      <c r="B3146" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="3147" spans="2:2">
+      <c r="B3147" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="3148" spans="2:2">
+      <c r="B3148" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="3149" spans="2:2">
+      <c r="B3149" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="3150" spans="2:2">
+      <c r="B3150" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="3151" spans="2:2">
+      <c r="B3151" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="3152" spans="2:2">
+      <c r="B3152" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="3153" spans="2:2">
+      <c r="B3153" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="3154" spans="2:2">
+      <c r="B3154" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="3155" spans="2:2">
+      <c r="B3155" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="3156" spans="2:2">
+      <c r="B3156" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="3157" spans="2:2">
+      <c r="B3157" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="3158" spans="2:2">
+      <c r="B3158" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="3159" spans="2:2">
+      <c r="B3159" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="3160" spans="2:2">
+      <c r="B3160" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="3161" spans="2:2">
+      <c r="B3161" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="3162" spans="2:2">
+      <c r="B3162" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="3163" spans="2:2">
+      <c r="B3163" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="3164" spans="2:2">
+      <c r="B3164" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="3165" spans="2:2">
+      <c r="B3165" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="3166" spans="2:2">
+      <c r="B3166" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="3167" spans="2:2">
+      <c r="B3167" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="3168" spans="2:2">
+      <c r="B3168" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="3169" spans="2:2">
+      <c r="B3169" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="3170" spans="2:2">
+      <c r="B3170" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="3171" spans="2:2">
+      <c r="B3171" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="3172" spans="2:2">
+      <c r="B3172" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="3173" spans="2:2">
+      <c r="B3173" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="3174" spans="2:2">
+      <c r="B3174" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="3175" spans="2:2">
+      <c r="B3175" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="3176" spans="2:2">
+      <c r="B3176" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="3177" spans="2:2">
+      <c r="B3177" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="3178" spans="2:2">
+      <c r="B3178" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="3179" spans="2:2">
+      <c r="B3179" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="3180" spans="2:2">
+      <c r="B3180" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="3181" spans="2:2">
+      <c r="B3181" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="3182" spans="2:2">
+      <c r="B3182" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="3183" spans="2:2">
+      <c r="B3183" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="3184" spans="2:2">
+      <c r="B3184" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="3185" spans="2:2">
+      <c r="B3185" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="3186" spans="2:2">
+      <c r="B3186" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="3187" spans="2:2">
+      <c r="B3187" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="3188" spans="2:2">
+      <c r="B3188" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="3189" spans="2:2">
+      <c r="B3189" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="3190" spans="2:2">
+      <c r="B3190" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="3191" spans="2:2">
+      <c r="B3191" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="3192" spans="2:2">
+      <c r="B3192" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="3193" spans="2:2">
+      <c r="B3193" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="3194" spans="2:2">
+      <c r="B3194" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="3195" spans="2:2">
+      <c r="B3195" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="3196" spans="2:2">
+      <c r="B3196" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="3197" spans="2:2">
+      <c r="B3197" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="3198" spans="2:2">
+      <c r="B3198" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="3199" spans="2:2">
+      <c r="B3199" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="3200" spans="2:2">
+      <c r="B3200" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="3201" spans="2:2">
+      <c r="B3201" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="3202" spans="2:2">
+      <c r="B3202" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="3203" spans="2:2">
+      <c r="B3203" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="3204" spans="2:2">
+      <c r="B3204" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="3205" spans="2:2">
+      <c r="B3205" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="3206" spans="2:2">
+      <c r="B3206" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="3207" spans="2:2">
+      <c r="B3207" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="3208" spans="2:2">
+      <c r="B3208" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="3209" spans="2:2">
+      <c r="B3209" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="3210" spans="2:2">
+      <c r="B3210" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="3211" spans="2:2">
+      <c r="B3211" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="3212" spans="2:2">
+      <c r="B3212" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="3213" spans="2:2">
+      <c r="B3213" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="3214" spans="2:2">
+      <c r="B3214" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="3215" spans="2:2">
+      <c r="B3215" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="3216" spans="2:2">
+      <c r="B3216" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="3217" spans="2:2">
+      <c r="B3217" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="3218" spans="2:2">
+      <c r="B3218" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="3219" spans="2:2">
+      <c r="B3219" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="3220" spans="2:2">
+      <c r="B3220" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="3221" spans="2:2">
+      <c r="B3221" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="3222" spans="2:2">
+      <c r="B3222" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="3223" spans="2:2">
+      <c r="B3223" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="3224" spans="2:2">
+      <c r="B3224" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="3225" spans="2:2">
+      <c r="B3225" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="3226" spans="2:2">
+      <c r="B3226" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="3227" spans="2:2">
+      <c r="B3227" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="3228" spans="2:2">
+      <c r="B3228" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="3229" spans="2:2">
+      <c r="B3229" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="3230" spans="2:2">
+      <c r="B3230" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="3231" spans="2:2">
+      <c r="B3231" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="3232" spans="2:2">
+      <c r="B3232" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="3233" spans="2:2">
+      <c r="B3233" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3234" spans="2:2">
+      <c r="B3234" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="3235" spans="2:2">
+      <c r="B3235" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3236" spans="2:2">
+      <c r="B3236" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3237" spans="2:2">
+      <c r="B3237" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3238" spans="2:2">
+      <c r="B3238" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="3239" spans="2:2">
+      <c r="B3239" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="3240" spans="2:2">
+      <c r="B3240" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="3241" spans="2:2">
+      <c r="B3241" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="3242" spans="2:2">
+      <c r="B3242" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="3243" spans="2:2">
+      <c r="B3243" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="3244" spans="2:2">
+      <c r="B3244" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="3245" spans="2:2">
+      <c r="B3245" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="3246" spans="2:2">
+      <c r="B3246" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="3247" spans="2:2">
+      <c r="B3247" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="3248" spans="2:2">
+      <c r="B3248" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="3249" spans="2:2">
+      <c r="B3249" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="3250" spans="2:2">
+      <c r="B3250" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="3251" spans="2:2">
+      <c r="B3251" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="3252" spans="2:2">
+      <c r="B3252" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="3253" spans="2:2">
+      <c r="B3253" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="3254" spans="2:2">
+      <c r="B3254" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="3255" spans="2:2">
+      <c r="B3255" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="3256" spans="2:2">
+      <c r="B3256" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="3257" spans="2:2">
+      <c r="B3257" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="3258" spans="2:2">
+      <c r="B3258" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="3259" spans="2:2">
+      <c r="B3259" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="3260" spans="2:2">
+      <c r="B3260" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3261" spans="2:2">
+      <c r="B3261" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="3262" spans="2:2">
+      <c r="B3262" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="3263" spans="2:2">
+      <c r="B3263" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="3264" spans="2:2">
+      <c r="B3264" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="3265" spans="2:2">
+      <c r="B3265" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="3266" spans="2:2">
+      <c r="B3266" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="3267" spans="2:2">
+      <c r="B3267" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="3268" spans="2:2">
+      <c r="B3268" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="3269" spans="2:2">
+      <c r="B3269" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="3270" spans="2:2">
+      <c r="B3270" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="3271" spans="2:2">
+      <c r="B3271" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="3272" spans="2:2">
+      <c r="B3272" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="3273" spans="2:2">
+      <c r="B3273" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="3274" spans="2:2">
+      <c r="B3274" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="3275" spans="2:2">
+      <c r="B3275" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="3276" spans="2:2">
+      <c r="B3276" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="3277" spans="2:2">
+      <c r="B3277" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="3278" spans="2:2">
+      <c r="B3278" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="3279" spans="2:2">
+      <c r="B3279" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="3280" spans="2:2">
+      <c r="B3280" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="3281" spans="2:2">
+      <c r="B3281" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="3282" spans="2:2">
+      <c r="B3282" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="3283" spans="2:2">
+      <c r="B3283" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="3284" spans="2:2">
+      <c r="B3284" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="3285" spans="2:2">
+      <c r="B3285" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="3286" spans="2:2">
+      <c r="B3286" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="3287" spans="2:2">
+      <c r="B3287" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="3288" spans="2:2">
+      <c r="B3288" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="3289" spans="2:2">
+      <c r="B3289" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="3290" spans="2:2">
+      <c r="B3290" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3291" spans="2:2">
+      <c r="B3291" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="3292" spans="2:2">
+      <c r="B3292" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="3293" spans="2:2">
+      <c r="B3293" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="3294" spans="2:2">
+      <c r="B3294" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="3295" spans="2:2">
+      <c r="B3295" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="3296" spans="2:2">
+      <c r="B3296" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="3297" spans="2:2">
+      <c r="B3297" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="3298" spans="2:2">
+      <c r="B3298" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="3299" spans="2:2">
+      <c r="B3299" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="3300" spans="2:2">
+      <c r="B3300" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="3301" spans="2:2">
+      <c r="B3301" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="3302" spans="2:2">
+      <c r="B3302" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="3303" spans="2:2">
+      <c r="B3303" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="3304" spans="2:2">
+      <c r="B3304" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="3305" spans="2:2">
+      <c r="B3305" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="3306" spans="2:2">
+      <c r="B3306" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3307" spans="2:2">
+      <c r="B3307" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="3308" spans="2:2">
+      <c r="B3308" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="3309" spans="2:2">
+      <c r="B3309" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="3310" spans="2:2">
+      <c r="B3310" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="3311" spans="2:2">
+      <c r="B3311" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="3312" spans="2:2">
+      <c r="B3312" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="3313" spans="2:2">
+      <c r="B3313" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="3314" spans="2:2">
+      <c r="B3314" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="3315" spans="2:2">
+      <c r="B3315" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="3316" spans="2:2">
+      <c r="B3316" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="3317" spans="2:2">
+      <c r="B3317" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="3318" spans="2:2">
+      <c r="B3318" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="3319" spans="2:2">
+      <c r="B3319" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="3320" spans="2:2">
+      <c r="B3320" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="3321" spans="2:2">
+      <c r="B3321" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="3322" spans="2:2">
+      <c r="B3322" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="3323" spans="2:2">
+      <c r="B3323" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="3324" spans="2:2">
+      <c r="B3324" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="3325" spans="2:2">
+      <c r="B3325" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="3326" spans="2:2">
+      <c r="B3326" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="3327" spans="2:2">
+      <c r="B3327" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="3328" spans="2:2">
+      <c r="B3328" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="3329" spans="2:2">
+      <c r="B3329" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="3330" spans="2:2">
+      <c r="B3330" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="3331" spans="2:2">
+      <c r="B3331" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="3332" spans="2:2">
+      <c r="B3332" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="3333" spans="2:2">
+      <c r="B3333" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3334" spans="2:2">
+      <c r="B3334" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="3335" spans="2:2">
+      <c r="B3335" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="3336" spans="2:2">
+      <c r="B3336" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="3337" spans="2:2">
+      <c r="B3337" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="3338" spans="2:2">
+      <c r="B3338" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="3339" spans="2:2">
+      <c r="B3339" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="3340" spans="2:2">
+      <c r="B3340" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="3341" spans="2:2">
+      <c r="B3341" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="3342" spans="2:2">
+      <c r="B3342" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="3343" spans="2:2">
+      <c r="B3343" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="3344" spans="2:2">
+      <c r="B3344" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="3345" spans="2:2">
+      <c r="B3345" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="3346" spans="2:2">
+      <c r="B3346" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="3347" spans="2:2">
+      <c r="B3347" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3348" spans="2:2">
+      <c r="B3348" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="3349" spans="2:2">
+      <c r="B3349" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3350" spans="2:2">
+      <c r="B3350" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="3351" spans="2:2">
+      <c r="B3351" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="3352" spans="2:2">
+      <c r="B3352" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3353" spans="2:2">
+      <c r="B3353" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="3354" spans="2:2">
+      <c r="B3354" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="3355" spans="2:2">
+      <c r="B3355" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="3356" spans="2:2">
+      <c r="B3356" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="3357" spans="2:2">
+      <c r="B3357" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="3358" spans="2:2">
+      <c r="B3358" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="3359" spans="2:2">
+      <c r="B3359" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="3360" spans="2:2">
+      <c r="B3360" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="3361" spans="2:2">
+      <c r="B3361" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="3362" spans="2:2">
+      <c r="B3362" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="3363" spans="2:2">
+      <c r="B3363" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="3364" spans="2:2">
+      <c r="B3364" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="3365" spans="2:2">
+      <c r="B3365" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="3366" spans="2:2">
+      <c r="B3366" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="3367" spans="2:2">
+      <c r="B3367" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="3368" spans="2:2">
+      <c r="B3368" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="3369" spans="2:2">
+      <c r="B3369" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="3370" spans="2:2">
+      <c r="B3370" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="3371" spans="2:2">
+      <c r="B3371" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="3372" spans="2:2">
+      <c r="B3372" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="3373" spans="2:2">
+      <c r="B3373" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="3374" spans="2:2">
+      <c r="B3374" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3375" spans="2:2">
+      <c r="B3375" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="3376" spans="2:2">
+      <c r="B3376" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="3377" spans="2:2">
+      <c r="B3377" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="3378" spans="2:2">
+      <c r="B3378" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="3379" spans="2:2">
+      <c r="B3379" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="3380" spans="2:2">
+      <c r="B3380" t="s">
+        <v>3375</v>
       </c>
     </row>
   </sheetData>
@@ -25217,7 +27465,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>3095</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -25225,7 +27473,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>3096</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -25233,7 +27481,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>3097</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -25241,7 +27489,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>3098</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -25249,7 +27497,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>3099</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -25257,7 +27505,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>3100</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -25265,7 +27513,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>3101</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -25273,7 +27521,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>3102</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -25281,7 +27529,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>3103</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -25289,7 +27537,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>3104</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -25297,7 +27545,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>3105</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -25305,7 +27553,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>3106</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -25313,7 +27561,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>3107</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -25321,7 +27569,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>3108</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -25329,7 +27577,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>3109</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -25337,7 +27585,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>3110</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -25345,7 +27593,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>3111</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -25353,7 +27601,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>3112</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -25361,7 +27609,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>3113</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -25369,7 +27617,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>3114</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -25377,7 +27625,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>3115</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -25385,7 +27633,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>3116</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -25393,7 +27641,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>3117</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -25401,7 +27649,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>3118</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -25409,7 +27657,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>3119</v>
+        <v>3400</v>
       </c>
     </row>
   </sheetData>
